--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BL$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="108">
   <si>
     <t>Username</t>
   </si>
@@ -62,13 +65,157 @@
     <t>VednorBillNumber</t>
   </si>
   <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>User Location</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Job name</t>
+  </si>
+  <si>
+    <t>Job from period date</t>
+  </si>
+  <si>
+    <t>Job to period date</t>
+  </si>
+  <si>
+    <t>Modify Activity</t>
+  </si>
+  <si>
+    <t>Modify Remarks</t>
+  </si>
+  <si>
+    <t>Modify HSN</t>
+  </si>
+  <si>
+    <t>Modify Quantity</t>
+  </si>
+  <si>
+    <t>Modify Rate</t>
+  </si>
+  <si>
+    <t>Modify VInternal sub-Activity</t>
+  </si>
+  <si>
+    <t>Modify VVendor</t>
+  </si>
+  <si>
+    <t>MOdify VRemarks</t>
+  </si>
+  <si>
+    <t>Modify VHSN</t>
+  </si>
+  <si>
+    <t>Modify VQuantity</t>
+  </si>
+  <si>
+    <t>Modify VRate</t>
+  </si>
+  <si>
+    <t>Adl Item Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Activityinest</t>
+  </si>
+  <si>
+    <t>Remarksinest</t>
+  </si>
+  <si>
+    <t>HSNinest</t>
+  </si>
+  <si>
+    <t>Quantityinest</t>
+  </si>
+  <si>
+    <t>Rateinest</t>
+  </si>
+  <si>
+    <t>Estimate Date</t>
+  </si>
+  <si>
+    <t>Document Name</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>CreateJobDeliveryDate</t>
+  </si>
+  <si>
+    <t>CreateJobTargetEarnings</t>
+  </si>
+  <si>
+    <t>CreateJobTargetMargin</t>
+  </si>
+  <si>
+    <t>CreateJobObjective</t>
+  </si>
+  <si>
+    <t>Job name modify</t>
+  </si>
+  <si>
+    <t>Modifyestimateremark</t>
+  </si>
+  <si>
+    <t>Modifyestimatehsn</t>
+  </si>
+  <si>
+    <t>Modifyestimatequantity</t>
+  </si>
+  <si>
+    <t>Modifyestimaterate</t>
+  </si>
+  <si>
+    <t>Adlmodestitemtype</t>
+  </si>
+  <si>
+    <t>Adlmodestdesc</t>
+  </si>
+  <si>
+    <t>Adlmodestamount</t>
+  </si>
+  <si>
+    <t>modestdate</t>
+  </si>
+  <si>
+    <t>Contract number</t>
+  </si>
+  <si>
+    <t>Client PO number</t>
+  </si>
+  <si>
+    <t>Client PO Date</t>
+  </si>
+  <si>
+    <t>Client PO Amount</t>
+  </si>
+  <si>
+    <t>Shareestviaemailto</t>
+  </si>
+  <si>
     <t>tanmayn</t>
   </si>
   <si>
-    <t>Citi5bank$</t>
-  </si>
-  <si>
-    <t>PLN/0183/24-25</t>
+    <t>Citi6bank$</t>
+  </si>
+  <si>
+    <t>PLN/0315/24-25</t>
   </si>
   <si>
     <t>OOH</t>
@@ -93,6 +240,120 @@
   </si>
   <si>
     <t>200</t>
+  </si>
+  <si>
+    <t>team check</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>aayesha foods</t>
+  </si>
+  <si>
+    <t>applications</t>
+  </si>
+  <si>
+    <t>Campauto01862</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>CRM1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>ABC prints</t>
+  </si>
+  <si>
+    <t>test12</t>
+  </si>
+  <si>
+    <t>998362</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>CRM123</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Estimate1</t>
+  </si>
+  <si>
+    <t>Header1</t>
+  </si>
+  <si>
+    <t>Footer1</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>Campauto001861</t>
+  </si>
+  <si>
+    <t>100002</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>profitt</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>Less</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Estimate2</t>
+  </si>
+  <si>
+    <t>Header3</t>
+  </si>
+  <si>
+    <t>Footer3</t>
+  </si>
+  <si>
+    <t>213121</t>
+  </si>
+  <si>
+    <t>4214555</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Akshay</t>
   </si>
 </sst>
 </file>
@@ -1028,20 +1289,50 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:BT2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AX2" sqref="AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="16.1428571428571" customWidth="1"/>
     <col min="9" max="9" width="20.7142857142857" customWidth="1"/>
+    <col min="17" max="17" width="13.8571428571429" customWidth="1"/>
+    <col min="18" max="18" width="11.7142857142857" customWidth="1"/>
+    <col min="20" max="20" width="14" customWidth="1"/>
+    <col min="21" max="21" width="21.2857142857143" customWidth="1"/>
+    <col min="22" max="22" width="18.5714285714286" customWidth="1"/>
+    <col min="23" max="23" width="15.5714285714286" customWidth="1"/>
+    <col min="24" max="24" width="16.5714285714286" customWidth="1"/>
+    <col min="25" max="25" width="12.2857142857143" customWidth="1"/>
+    <col min="26" max="26" width="16.7142857142857" customWidth="1"/>
+    <col min="27" max="27" width="12.5714285714286" customWidth="1"/>
+    <col min="28" max="28" width="29.7142857142857" customWidth="1"/>
+    <col min="29" max="29" width="16.8571428571429" customWidth="1"/>
+    <col min="30" max="30" width="18.2857142857143" customWidth="1"/>
+    <col min="31" max="31" width="13.7142857142857" customWidth="1"/>
+    <col min="32" max="32" width="18.1428571428571" customWidth="1"/>
+    <col min="33" max="33" width="14" customWidth="1"/>
+    <col min="34" max="34" width="14.2857142857143" customWidth="1"/>
+    <col min="37" max="37" width="13" customWidth="1"/>
+    <col min="38" max="38" width="14" customWidth="1"/>
+    <col min="40" max="40" width="14.1428571428571" customWidth="1"/>
+    <col min="42" max="42" width="14.2857142857143" customWidth="1"/>
+    <col min="43" max="43" width="17.2857142857143" customWidth="1"/>
+    <col min="46" max="47" width="23.4285714285714" customWidth="1"/>
+    <col min="48" max="48" width="25.1428571428571" customWidth="1"/>
+    <col min="49" max="49" width="23.7142857142857" customWidth="1"/>
+    <col min="50" max="50" width="17.5714285714286" customWidth="1"/>
+    <col min="51" max="51" width="21.2857142857143" customWidth="1"/>
+    <col min="52" max="52" width="18.5714285714286" customWidth="1"/>
+    <col min="54" max="54" width="25.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:72">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1087,55 +1378,403 @@
       <c r="O1" t="s">
         <v>10</v>
       </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:72">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>21</v>
+        <v>69</v>
+      </c>
+      <c r="P2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>20</v>
+      </c>
+      <c r="W2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AY2">
+        <v>1</v>
+      </c>
+      <c r="AZ2">
+        <v>19</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG2">
+        <v>2</v>
+      </c>
+      <c r="BH2">
+        <v>100</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK2">
+        <v>20</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>103</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BL2" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="Citi6bank$"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500"/>
+    <workbookView windowWidth="19635" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
     <t>applications</t>
   </si>
   <si>
-    <t>Campauto01862</t>
+    <t>Campauto018622901111</t>
   </si>
   <si>
     <t>Test</t>
@@ -311,7 +311,7 @@
     <t>profit</t>
   </si>
   <si>
-    <t>Campauto001861</t>
+    <t>Campauto00186129011121</t>
   </si>
   <si>
     <t>100002</t>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:BT2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AX2" sqref="AX2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
